--- a/documents/DB定義書_USK³.xlsx
+++ b/documents/DB定義書_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D26F9B-E0A4-4F28-B616-4B8892231314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9097C0C1-EF8F-485B-ABD1-7AFA384DFE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="リアクション" sheetId="3" r:id="rId3"/>
     <sheet name="予約" sheetId="4" r:id="rId4"/>
     <sheet name="掲示板" sheetId="5" r:id="rId5"/>
+    <sheet name="掲示板返信" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="67">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -397,6 +398,45 @@
   </si>
   <si>
     <t>email</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板返信</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board_reply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答日時</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reply_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板返信</t>
+    <rPh sb="0" eb="5">
+      <t>ケイジバンヘンシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -889,8 +929,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -937,13 +977,17 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8">
+        <v>44355</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
@@ -1026,9 +1070,15 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1276,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
@@ -2329,7 +2379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DE91AE-FF00-4E04-8431-557789B06C88}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
@@ -2861,7 +2911,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3077,6 +3127,539 @@
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>email varchar (40),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">reply_date datetime </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44355</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table board_reply (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="10"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>question text ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>reply_date datetime ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>email varchar (40)</v>
       </c>
     </row>
@@ -3376,5 +3959,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/DB定義書_USK³.xlsx
+++ b/documents/DB定義書_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9097C0C1-EF8F-485B-ABD1-7AFA384DFE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FAFD3F-B18D-4020-B130-8EC3A61D6684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="69">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -436,6 +436,20 @@
     <t>掲示板返信</t>
     <rPh sb="0" eb="5">
       <t>ケイジバンヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_reply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -929,7 +943,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2379,7 +2393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DE91AE-FF00-4E04-8431-557789B06C88}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
@@ -2910,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC47F16B-0DCA-4071-AC46-B91DA831C75F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2972,7 +2986,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -2986,7 +3002,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8">
+        <v>44355</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -3439,8 +3457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3592,10 +3610,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -3608,7 +3626,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question text ,</v>
+        <v>question_reply text ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">

--- a/documents/DB定義書_USK³.xlsx
+++ b/documents/DB定義書_USK³.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FAFD3F-B18D-4020-B130-8EC3A61D6684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C994AA-9870-4EE1-B7F9-348F0E52834E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="IDPW" sheetId="2" r:id="rId2"/>
     <sheet name="リアクション" sheetId="3" r:id="rId3"/>
-    <sheet name="予約" sheetId="4" r:id="rId4"/>
-    <sheet name="掲示板" sheetId="5" r:id="rId5"/>
-    <sheet name="掲示板返信" sheetId="7" r:id="rId6"/>
+    <sheet name="掲示板" sheetId="5" r:id="rId4"/>
+    <sheet name="掲示板返信" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="62">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -217,49 +216,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>予約</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reservation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予約内容</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>teacher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>講師</t>
-    <rPh sb="0" eb="2">
-      <t>コウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掲示板</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -359,10 +315,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>英数字</t>
     <rPh sb="0" eb="3">
       <t>エイスウジ</t>
@@ -451,6 +403,10 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reacom(リーコム)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -941,10 +897,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -979,7 +935,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1008,10 +966,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1025,10 +983,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -1070,10 +1028,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -1084,15 +1042,9 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1319,15 +1271,6 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="3">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1341,7 +1284,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1394,10 +1337,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1408,10 +1351,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1425,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -1471,10 +1414,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1505,7 +1448,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1567,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>25</v>
@@ -1583,11 +1526,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>mail varchar (40)</v>
+        <v>email varchar (40)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1877,7 +1820,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="B13" sqref="B13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1930,7 +1873,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>31</v>
@@ -1944,7 +1887,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
@@ -1961,10 +1904,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2007,10 +1950,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2049,10 +1992,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
@@ -2065,20 +2008,26 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>mail varchar (40)</v>
+        <v>email varchar (40),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2087,7 +2036,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">reply_date datetime </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2390,11 +2339,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DE91AE-FF00-4E04-8431-557789B06C88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC47F16B-0DCA-4071-AC46-B91DA831C75F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2447,7 +2396,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>33</v>
@@ -2455,13 +2404,15 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>34</v>
@@ -2469,7 +2420,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8">
+        <v>44355</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -2478,10 +2431,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2506,7 +2459,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table reservation (</v>
+        <v>create table board (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2514,25 +2467,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>255</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="10"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>reservation varchar (255),</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2540,13 +2495,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2556,7 +2511,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>teacher int ,</v>
+        <v>question text ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2564,10 +2519,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
@@ -2580,7 +2535,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>done int ,</v>
+        <v>reply_status int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2588,27 +2543,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v>email varchar (40),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2616,27 +2571,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
-        <v>40</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>mail varchar (40)</v>
+        <v xml:space="preserve">reply_date datetime </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2921,11 +2872,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC47F16B-0DCA-4071-AC46-B91DA831C75F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2978,10 +2929,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2994,10 +2945,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3013,10 +2964,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -3041,7 +2992,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table board (</v>
+        <v>create table board_reply (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3059,10 +3010,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3077,13 +3028,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3093,7 +3044,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question text ,</v>
+        <v>question_reply text ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3101,13 +3052,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3117,7 +3068,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>reply_status int ,</v>
+        <v>reply_date datetime ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3125,10 +3076,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
@@ -3141,26 +3092,20 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email varchar (40),</v>
+        <v>email varchar (40)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3169,7 +3114,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">reply_date datetime </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -3450,533 +3395,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8">
-        <v>44355</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table board_reply (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="10"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question_reply text ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>reply_date datetime ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>40</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email varchar (40)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/DB定義書_USK³.xlsx
+++ b/documents/DB定義書_USK³.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C994AA-9870-4EE1-B7F9-348F0E52834E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BF9B63-5479-4329-896F-72403D6D7300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="62">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -406,7 +406,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Reacom(リーコム)</t>
+    <t>ReacQ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1325,7 +1325,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1347,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -1359,7 +1363,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8">
+        <v>44355</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -1820,7 +1826,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1861,7 +1867,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1881,7 +1889,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -1895,7 +1905,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8">
+        <v>44355</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -2343,7 +2355,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2384,7 +2396,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2876,7 +2890,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2917,7 +2931,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>

--- a/documents/DB定義書_USK³.xlsx
+++ b/documents/DB定義書_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BF9B63-5479-4329-896F-72403D6D7300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D338E7-5064-4D20-83F9-A57648CE30CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2354,7 +2354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC47F16B-0DCA-4071-AC46-B91DA831C75F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2889,7 +2889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/documents/DB定義書_USK³.xlsx
+++ b/documents/DB定義書_USK³.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FAFD3F-B18D-4020-B130-8EC3A61D6684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D338E7-5064-4D20-83F9-A57648CE30CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="IDPW" sheetId="2" r:id="rId2"/>
     <sheet name="リアクション" sheetId="3" r:id="rId3"/>
-    <sheet name="予約" sheetId="4" r:id="rId4"/>
-    <sheet name="掲示板" sheetId="5" r:id="rId5"/>
-    <sheet name="掲示板返信" sheetId="7" r:id="rId6"/>
+    <sheet name="掲示板" sheetId="5" r:id="rId4"/>
+    <sheet name="掲示板返信" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="62">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -217,49 +216,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>予約</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reservation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予約内容</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>teacher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>講師</t>
-    <rPh sb="0" eb="2">
-      <t>コウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掲示板</t>
     <rPh sb="0" eb="3">
       <t>ケイジバン</t>
@@ -359,10 +315,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>英数字</t>
     <rPh sb="0" eb="3">
       <t>エイスウジ</t>
@@ -451,6 +403,10 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReacQ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -941,10 +897,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -979,7 +935,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1008,10 +966,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1025,10 +983,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -1070,10 +1028,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -1084,15 +1042,9 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1319,15 +1271,6 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="3">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1338,1590 +1281,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table user_data (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="9"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>position int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>40</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>name varchar (40),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
-        <v>40</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>mail varchar (40)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFA124D-367C-4DDF-AB9B-379703FA85D8}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table reaction (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>reaction int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>40</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>mail varchar (40)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DE91AE-FF00-4E04-8431-557789B06C88}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table reservation (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3">
-        <v>255</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>reservation varchar (255),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>teacher int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>done int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
-        <v>40</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>mail varchar (40)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC47F16B-0DCA-4071-AC46-B91DA831C75F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2966,7 +1325,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2978,10 +1339,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2994,10 +1355,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3013,10 +1374,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -3041,7 +1402,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table board (</v>
+        <v>create table user_data (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3059,14 +1420,14 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="9"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
@@ -3077,23 +1438,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question text ,</v>
+        <v>password varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3101,10 +1466,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
@@ -3117,7 +1482,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>reply_status int ,</v>
+        <v>position int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3125,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
@@ -3140,12 +1505,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email varchar (40),</v>
+        <v>name varchar (40),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -3153,23 +1516,27 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>40</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">reply_date datetime </v>
+        <v>email varchar (40)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -3450,15 +1817,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFA124D-367C-4DDF-AB9B-379703FA85D8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3499,7 +1867,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3511,10 +1881,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3527,10 +1897,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3546,10 +1916,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -3574,7 +1944,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table board_reply (</v>
+        <v>create table reaction (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3592,14 +1962,14 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
@@ -3610,13 +1980,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3626,7 +1996,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question_reply text ,</v>
+        <v>reaction int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3634,23 +2004,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>40</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>reply_date datetime ,</v>
+        <v>email varchar (40),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3658,27 +2032,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>40</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email varchar (40)</v>
+        <v xml:space="preserve">reply_date datetime </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -3977,6 +2347,1070 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC47F16B-0DCA-4071-AC46-B91DA831C75F}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44355</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table board (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="10"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>question text ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>reply_status int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>email varchar (40),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">reply_date datetime </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44355</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table board_reply (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="10"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>question_reply text ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>reply_date datetime ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>email varchar (40)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/DB定義書_USK³.xlsx
+++ b/documents/DB定義書_USK³.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D338E7-5064-4D20-83F9-A57648CE30CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3E75B7-EADC-4762-A092-399B93CF494B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="IDPW" sheetId="2" r:id="rId2"/>
+    <sheet name="ユーザーデータ" sheetId="2" r:id="rId2"/>
     <sheet name="リアクション" sheetId="3" r:id="rId3"/>
     <sheet name="掲示板" sheetId="5" r:id="rId4"/>
     <sheet name="掲示板返信" sheetId="7" r:id="rId5"/>
@@ -899,7 +899,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1418,7 +1418,9 @@
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1430,7 +1432,7 @@
       <c r="J10" s="9"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v>id int (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1447,7 +1449,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1458,7 +1460,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password varchar (20),</v>
+        <v>password varchar (30),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1499,7 +1501,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1508,7 +1510,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>name varchar (40),</v>
+        <v>name varchar (250),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -1525,7 +1527,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="3">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1536,7 +1538,7 @@
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>email varchar (40)</v>
+        <v>email varchar (250)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1826,7 +1828,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1960,7 +1962,9 @@
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1972,7 +1976,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v>id int (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2013,7 +2017,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="3">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2024,7 +2028,7 @@
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>email varchar (40),</v>
+        <v>email varchar (250),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2355,7 +2359,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2566,7 +2570,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2577,7 +2581,7 @@
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email varchar (40),</v>
+        <v>email varchar (250),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2889,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3101,7 +3105,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3112,7 +3116,7 @@
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email varchar (40)</v>
+        <v>email varchar (250)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">

--- a/documents/DB定義書_USK³.xlsx
+++ b/documents/DB定義書_USK³.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3E75B7-EADC-4762-A092-399B93CF494B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D005DC7-A3D8-4C9B-A429-02702CA5F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="63">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -407,6 +407,10 @@
   </si>
   <si>
     <t>ReacQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1284,7 +1288,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1446,10 +1450,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1460,7 +1464,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password varchar (30),</v>
+        <v>password char (50),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1501,7 +1505,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1510,7 +1514,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>name varchar (250),</v>
+        <v>name varchar (255),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -1527,7 +1531,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="3">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1538,7 +1542,7 @@
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>email varchar (250)</v>
+        <v>email varchar (255)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1825,6 +1829,537 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFA124D-367C-4DDF-AB9B-379703FA85D8}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44355</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table reaction (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int (5),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>reaction int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>255</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>email varchar (255),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">reply_date datetime </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC47F16B-0DCA-4071-AC46-B91DA831C75F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1886,7 +2421,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1902,7 +2437,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1946,7 +2481,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table reaction (</v>
+        <v>create table board (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1962,9 +2497,7 @@
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1973,10 +2506,10 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="10"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int (5),</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1984,13 +2517,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2000,7 +2533,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>reaction int ,</v>
+        <v>question text ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2008,27 +2541,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3">
-        <v>250</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>email varchar (250),</v>
+        <v>reply_status int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2036,32 +2565,42 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>255</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">reply_date datetime </v>
+        <v>email varchar (255),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2070,7 +2609,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">reply_date datetime </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2354,12 +2893,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC47F16B-0DCA-4071-AC46-B91DA831C75F}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2417,7 +2956,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2433,7 +2972,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2477,7 +3016,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table board (</v>
+        <v>create table board_reply (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2513,10 +3052,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -2529,7 +3068,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question text ,</v>
+        <v>question_reply text ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2537,13 +3076,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2553,7 +3092,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>reply_status int ,</v>
+        <v>reply_date datetime ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2570,7 +3109,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2581,22 +3120,16 @@
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email varchar (250),</v>
+        <v>email varchar (255)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2605,7 +3138,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">reply_date datetime </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2886,535 +3419,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8">
-        <v>44355</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table board_reply (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="10"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question_reply text ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>reply_date datetime ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>250</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email varchar (250)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/DB定義書_USK³.xlsx
+++ b/documents/DB定義書_USK³.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D338E7-5064-4D20-83F9-A57648CE30CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D005DC7-A3D8-4C9B-A429-02702CA5F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="IDPW" sheetId="2" r:id="rId2"/>
+    <sheet name="ユーザーデータ" sheetId="2" r:id="rId2"/>
     <sheet name="リアクション" sheetId="3" r:id="rId3"/>
     <sheet name="掲示板" sheetId="5" r:id="rId4"/>
     <sheet name="掲示板返信" sheetId="7" r:id="rId5"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="63">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -407,6 +407,10 @@
   </si>
   <si>
     <t>ReacQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -899,7 +903,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1284,7 +1288,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1418,7 +1422,9 @@
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1430,7 +1436,7 @@
       <c r="J10" s="9"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v>id int (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1444,10 +1450,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1458,7 +1464,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password varchar (20),</v>
+        <v>password char (50),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1499,7 +1505,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1508,7 +1514,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>name varchar (40),</v>
+        <v>name varchar (255),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -1525,7 +1531,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="3">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1536,7 +1542,7 @@
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>email varchar (40)</v>
+        <v>email varchar (255)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1826,7 +1832,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1960,7 +1966,9 @@
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1972,7 +1980,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v>id int (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2013,7 +2021,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="3">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2024,7 +2032,7 @@
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>email varchar (40),</v>
+        <v>email varchar (255),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2355,7 +2363,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2566,7 +2574,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2577,7 +2585,7 @@
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email varchar (40),</v>
+        <v>email varchar (255),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2889,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3101,7 +3109,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3112,7 +3120,7 @@
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email varchar (40)</v>
+        <v>email varchar (255)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">

--- a/documents/DB定義書_USK³.xlsx
+++ b/documents/DB定義書_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D005DC7-A3D8-4C9B-A429-02702CA5F096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2CF41A-A8A2-41FB-97C8-22F50553438B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7110" yWindow="2205" windowWidth="13320" windowHeight="8655" tabRatio="712" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="リアクション" sheetId="3" r:id="rId3"/>
     <sheet name="掲示板" sheetId="5" r:id="rId4"/>
     <sheet name="掲示板返信" sheetId="7" r:id="rId5"/>
+    <sheet name="気になる機能" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="70">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -161,16 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>講師／受講者</t>
-    <rPh sb="0" eb="2">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュコウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>position</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -322,22 +313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5文字以上、大文字・数字含む</t>
-    <rPh sb="1" eb="5">
-      <t>モジイジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>オオモジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント管理</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
@@ -396,21 +371,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>返信内容</t>
+    <t>ReacQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気になる機能</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>likes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問コード</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信コード</t>
     <rPh sb="0" eb="2">
       <t>ヘンシン</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ReacQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q_reply_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答日時</t>
+    <rPh sb="0" eb="4">
+      <t>カイトウニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信内容</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシンナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師/受講者</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュコウシャ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -418,7 +447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,21 +477,6 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -523,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,13 +565,7 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -903,8 +911,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -926,13 +934,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -940,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -954,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -962,7 +970,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="8">
-        <v>44355</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -970,10 +978,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -987,10 +995,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
@@ -1002,10 +1010,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
@@ -1017,10 +1025,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -1032,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -1046,9 +1054,15 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1287,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1314,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1330,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1343,32 +1357,32 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1378,10 +1392,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -1420,23 +1434,21 @@
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="9"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int (5),</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1444,27 +1456,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="11" t="s">
-        <v>49</v>
+      <c r="J11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password char (50),</v>
+        <v>email varchar (255),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1472,23 +1486,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>position int ,</v>
+        <v>password char (30),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1496,13 +1514,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3">
         <v>255</v>
@@ -1522,27 +1540,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="3">
-        <v>255</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>email varchar (255)</v>
+        <v xml:space="preserve">position int </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -1831,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFA124D-367C-4DDF-AB9B-379703FA85D8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1844,7 +1858,7 @@
     <col min="6" max="6" width="9.75" customWidth="1"/>
     <col min="7" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1858,13 +1872,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1874,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -1887,32 +1901,32 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1922,10 +1936,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -1964,23 +1978,21 @@
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="9"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int (5),</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1988,23 +2000,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>255</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>reaction int ,</v>
+        <v>email varchar (255),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2012,27 +2030,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="3">
-        <v>255</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>email varchar (255),</v>
+        <v>reaction int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2040,19 +2054,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2363,7 +2381,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2375,7 +2393,7 @@
     <col min="6" max="6" width="9.75" customWidth="1"/>
     <col min="7" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2389,13 +2407,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2405,7 +2423,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2418,32 +2436,32 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2453,10 +2471,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -2495,18 +2513,18 @@
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="9"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
@@ -2517,23 +2535,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>255</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question text ,</v>
+        <v>email varchar (255),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -2541,13 +2565,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2555,9 +2579,9 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>reply_status int ,</v>
+      <c r="L12" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2565,27 +2589,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="3">
-        <v>255</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email varchar (255),</v>
+      <c r="J13" s="3"/>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -2593,19 +2613,569 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>reply_date datetime ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">question_code int </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44357</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table board_reply (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="9"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>255</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>email varchar (255),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>q_reply_code int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>question_reply text ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2890,15 +3460,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839AF86E-3A75-42A6-BB2D-BD31CF38D7C3}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0E4C4B-4B02-41EF-B9C7-026C8322B3EA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2910,7 +3481,7 @@
     <col min="6" max="6" width="9.75" customWidth="1"/>
     <col min="7" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2924,13 +3495,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2940,7 +3511,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2953,32 +3524,32 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="8">
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2988,10 +3559,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -3016,7 +3587,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table board_reply (</v>
+        <v>create table likes (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3030,18 +3601,18 @@
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="9"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
@@ -3052,23 +3623,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>255</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>question_reply text ,</v>
+        <v>email varchar (255),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3076,13 +3651,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3092,7 +3667,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>reply_date datetime ,</v>
+        <v>question_code int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3100,27 +3675,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>255</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>email varchar (255)</v>
+        <v xml:space="preserve">reply_date datetime </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -3134,7 +3709,6 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3419,6 +3993,5 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/DB定義書_USK³.xlsx
+++ b/documents/DB定義書_USK³.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-5\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2CF41A-A8A2-41FB-97C8-22F50553438B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798E3825-AC24-4330-80A3-56FA9FA89321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="2205" windowWidth="13320" windowHeight="8655" tabRatio="712" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="712" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="70">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -2381,7 +2381,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2600,8 +2600,12 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="e">
         <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -2674,7 +2678,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3662,8 +3666,12 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3993,5 +4001,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>